--- a/app/webroot/files/4-Javier Argueta/5 - Consejerias.xlsx
+++ b/app/webroot/files/4-Javier Argueta/5 - Consejerias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manri\Desktop\Formatos tablas Fosalud\Region Metropolitana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manri\Desktop\Formatos tablas Fosalud\3 - Region Metropolitana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C25C5-9434-44E5-9CC3-194EF31EDA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48301E0A-51DA-4178-9E7C-6136ABE4A12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FEE53986-C482-44D1-85BF-19005F3BA3BD}"/>
   </bookViews>
@@ -69,64 +69,64 @@
     <t>esta_id</t>
   </si>
   <si>
-    <t>UCSF BARRIOS</t>
-  </si>
-  <si>
-    <t>UCSF ZACAMIL</t>
-  </si>
-  <si>
-    <t>UCSF MEJICANOS</t>
-  </si>
-  <si>
-    <t>UCSF CUSCATANCINGO</t>
-  </si>
-  <si>
-    <t>UCSF SAN MIGUELITO</t>
-  </si>
-  <si>
-    <t>UCSF CONCEPCION</t>
-  </si>
-  <si>
-    <t>UCSF HABITAT CONFIE</t>
-  </si>
-  <si>
-    <t>UCSF UNICENTRO</t>
-  </si>
-  <si>
-    <t>UCSF ILOPANGO</t>
-  </si>
-  <si>
-    <t>UCSF ALTAVISTA</t>
-  </si>
-  <si>
-    <t>CAE SAN MARTIN</t>
-  </si>
-  <si>
-    <t>UCSF SAN JACINTO</t>
-  </si>
-  <si>
-    <t>UCSF SAN MARCOS</t>
-  </si>
-  <si>
-    <t>UCSF PANCHIMALCO</t>
-  </si>
-  <si>
-    <t>UCSF AGUILARES</t>
-  </si>
-  <si>
-    <t>UCSF APOPA</t>
-  </si>
-  <si>
-    <t>UCSF TONACATEPEQUE</t>
-  </si>
-  <si>
-    <t>UCSF POPOTLAN</t>
-  </si>
-  <si>
-    <t>UCSF EL PAINSAL</t>
-  </si>
-  <si>
-    <t>UCSF GUAZAPA</t>
+    <t>UCSFI San Salvador SS Barrios</t>
+  </si>
+  <si>
+    <t>UCSFI Mejicanos SS Zacamil</t>
+  </si>
+  <si>
+    <t>UCSFI Mejicanos SS "Dr. Hugo Morán Quijada"</t>
+  </si>
+  <si>
+    <t>UCSFI Cuscatancingo SS</t>
+  </si>
+  <si>
+    <t>UCSFI San Salvador SS San Miguelito " Dr.Juan Ramón Alvarenga"</t>
+  </si>
+  <si>
+    <t>UCSFI San Salvador SS Concepción</t>
+  </si>
+  <si>
+    <t>UCSFI Ciudad Delgado SS Hábitat Confien</t>
+  </si>
+  <si>
+    <t>UCSFI Soyapango SS Unicentro</t>
+  </si>
+  <si>
+    <t>UCSFI Ilopango SS</t>
+  </si>
+  <si>
+    <t>UCSFI Tonacatepeque SS Alta Vista</t>
+  </si>
+  <si>
+    <t>CAE San Martin SS</t>
+  </si>
+  <si>
+    <t>UCSFI San Salvador SS San Jacinto "Dr. Mauricio Sol Nerio"</t>
+  </si>
+  <si>
+    <t>UCSFI San Marcos SS "Dr. Roberto Cáceres Bustamante"</t>
+  </si>
+  <si>
+    <t>UCSFI Panchimalco SS</t>
+  </si>
+  <si>
+    <t>UCSFI Aguilares SS</t>
+  </si>
+  <si>
+    <t>UCSFI Apopa SS</t>
+  </si>
+  <si>
+    <t>UCSFI Tonacatepeque SS</t>
+  </si>
+  <si>
+    <t>UCSFI Apopa SS Popotlán</t>
+  </si>
+  <si>
+    <t>UCSFI El Paisnal SS</t>
+  </si>
+  <si>
+    <t>UCSFI Guazapa SS</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
       <c r="P23" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U23/CbjI8TSX/htHUa15Xx4h2jjlJHEdiLscWi8sV7jVvu/clCkGzssWqXtSVGuizL95fbhcJIrNSP3G1dw1nA==" saltValue="TLROdBahPJH4oqijXKajXA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mMy1CcjHwL55lz4VKjzUjZKO2CbKuEE0jTfDZSelF3+lf+BXM8EZCE4504MWkh+pXbFGVnXltAKQYqAa0TierA==" saltValue="w198uSE3hbmZSV7Z/7lJqA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <protectedRanges>
     <protectedRange sqref="E4:P23" name="Rango1"/>
   </protectedRanges>
